--- a/500all/speech_level/speeches_CHRG-114hhrg22195.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22195.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. The Subcommittee on the Interior of the Committee on Oversight and Government Reform will come to order. This hearing is somewhat unique, in that it's totally about the future, the government reform component of OGR's responsibility.    In order to set the stage for this discussion, I want to explain why the subject is so important to me and why it should be important to Congress. Let's step back into Mr. Peabody's Way Back Machine and turn the dial to the 1970s. The 1970s were a time of major environmental and natural resource lawmaking. The EPA was created in 1970; the Clean Water Act was passed in 1972; the Endangered Species Act in 1973; and FLPMA, the Federal Land Policy Management Act, in 1976. Incidentally, I was in high school and college during those years and took classes in both range management and soil science in college. I also had some really bad hairdos, but we won't go there.    All right. Roughly 40 years have passed. Scientific knowledge has grown leaps and bounds. What was settled science back then is now very different. Global cooling science from the 1970s is now global warming science. We know only one thing for sure: science is never settled.    Range science is among the scientific disciplines that have evolved exponentially since I took a range management class in college over 40 years ago. We are going to hear about some of those practices today, those modern practices, which were neither contemplated nor accommodated in our 40-year natural resource management statutes. Rules and policies adopted recently in this decade are based on old laws and old science. Some of these rules implement practices that may accelerate desertification. There is a better way.    For the sake of our range health, let's explore modern soil science and grassland health. Modern holistic practices can inform natural resource laws, rules, and practices. 99.9 percent of the Bureau of Land Management land in the U.S. is in 11 western States. It is mostly grassland, a huge carbon sequestration resource.    We are grateful today for the testimony of witnesses who can attest to 21st century conservation practices that are restoring health to soils and grassland resources.    I also want to thank Ranking Member Lawrence for this departure from normal hearing processes to view the following excerpt from a Ted talk delivered by Allan Savory, a global leader in regenerative land and resource management. Now, Mr. Savory would have been here today to testify, but he is with Prince Philip in England talking about these very same issues, so he was unable to attend.    But would you please show us his Ted talk?</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Savory</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Savory. ``Desertification is a fancy word for land that is turning to desert, and this happens only when we create too much bare ground. There is no other cause. And I intend to focus on most of the world's land that is turning to desert. But I have for you a very simple message that offers more hope than you can imagine. We have environments where humidity is guaranteed throughout the year. On those, it is almost impossible to create vast areas of bare ground no matter what you do. Nature covers it up so quickly. And we have environments where we have months of humidity followed by months of dryness, and that is where desertification is occurring.    Fortunately with space technology now, we can look at it from space, and when we do, you can see the proportions fairly well. Generally what you see in green is not desertifying, and what you see in brown is, and these are by far the greatest areas of the earth. About two-thirds, I would guess, of the world is desertifying. I took this picture in the Tihamah Desert while 25 millimeters, that is an inch of rain, was falling. Think of it in terms of drums of water each containing 200 liters.    Over 1,000 drums of water fell on every hectare of that land that day. The next day, the land looked like this. Where had that water gone? Some of it ran off as flooding, but most of the water that soaked into the soil simply evaporated out again, exactly as it does in your garden if you leave the soil uncovered.    Now, because the fate of water and carbon are tied to soil organic matter, when we damage soils, you give off carbon, carbon goes back to the atmosphere.    Now, you are told over and over repeatedly that desertification is only occurring in arid and semiarid areas of the world and that tall grasslands like this one, in high rainfall, are of no consequence, but if you do not look at grasslands, but look down into them, you find that most of the soil in that grassland that you have just seen is bare and covered with a crust of algae, leading to increased runoff and evaporation. That is the cancer of desertification that we do not recognize till its terminal form.    Now, we know that desertification is caused by livestock, mostly cattle, sheep, and goats overgrazing the plants, okay, leaving the soil bare and giving off methane. Almost everybody knows this, from Nobel laureates to golf caddies, always taught it, as I was.    Now, the environments like you see here, dusty environments in Africa, where I grew up, and I loved wildlife, and so I grew up hating livestock because of the damage they were doing, and then my university education as an ecologist reinforced my beliefs. Well, I have news for you. We were once just as certain that the world was flat. We were wrong then, and we are wrong again. And I want to invite you now to come along on my journey of reeducation and discovery.    When I was a young man, a young biologist in Africa, I was involved in setting aside marvelous areas as future national parks. Now, no sooner--this was in the 1950s. And no sooner did we remove the hunting, drumbeating people to protect the animals, than the land began to deteriorate, as you see in this park that we formed. Now, no livestock were involved, but suspecting that we had too many elephants now, I did the research and I proved we had too many, and I recommended that we would have to reduce their numbers and bring them down to a level that the land could sustain. Now, that was a terrible decision for me to have to make, and it was political dynamite, frankly, so our government formed a team of experts to evaluate my research. They did. They agreed with me. And over the following years, we shot 40,000 elephants to try to stop the damage, and it got worse, not better. Loving elephants as I do, that was the saddest and greatest blunder of my life, and I will carry that to my grave. One good thing did come out of it. It made me absolutely determined to devote my life to finding solutions.    When I came to the United States, I got a shock to find national parks like this one desertifying as badly as anything in Africa, and there had been no livestock on this land for over 70 years. And I found that American scientists had no explanation for this except that it is arid and natural.    So I then began looking at all the research plots I could over the whole of the western United States where cattle had been removed to prove that it would stop desertification, but I found the opposite. As we see on this research station where this grassland that was green in 1961, by 2002 had changed to that situation. And the authors of the position paper on climate change from which I obtained these pictures attribute this change to unknown processes.    Clearly we have never understood what is causing desertification, which has destroyed many civilizations and now threatens us globally. We have never understood it. Take one square meter of soil and make it bare like this is down here, and I promise you, you will find it much colder at dawn and much hotter at midday than that same piece of ground if it is just covered with litter, plant litter. You have changed the microclimate. Now, by the time you are doing that and increasing greatly the percentage of bare ground on more than half the world's land, you are changing macroclimate, but we have just simply not understood why was it beginning to happen 10,000 years ago, why has it accelerated lately. We had no understanding of that.    What we had failed to understand was that these seasonal humidity environments of the world, the soil and the vegetation, developed with very large numbers of grazing animals and that these grazing animals developed with ferocious pack hunting predators. Now, the main defense against pack hunting predators is to get into herds, and the larger the herd, the safer the individuals. Now, large herds, dung and urinate all over their own food, and they have to keep moving, and it was that movement that prevented the overgrazing of plants, while the periodic trampling ensured good cover of the soil, as we see where a herd has passed.    This picture is a typical seasonal grassland, it has just come through 4 months of rain and it is now going into 8 months of dry season, and watch the change as it goes into this long dry season. Now, all of that grass you see aboveground has to decay biologically before the next growing season, and if it doesn't, the grassland and the soil begin to die. Now, if it does not decay biologically, it shifts to oxidation, which is a very slow process, and this smothers and kills grasses, leading to a shift to woody vegetation and bare soil, releasing carbon.    To prevent that, we have traditionally used fire, but fire also leaves the soil bare, releasing carbon. And worse than that, burning one hectare of grassland gives off more and more damaging pollutants than 6,000 cars, and we are burning in Africa every single year more than 1 billion hectares of grasslands, and almost nobody is talking about it. We justify the burning as scientists, because it does remove the dead material and it allows the plants to grow.''</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Madam Chair. I do want to say, being a city girl born and raised, I have learned a lot from you.    The United States has over 770 million acres of grazing land. These lands are important to both our agriculture and the environment. Grasslands provide pasture for livestock, but also act as a natural erosion control habitat for a diverse and sometimes even endangered species, and reservoirs for carbon dioxide that would otherwise be released into the atmosphere.    While the environment is healthier, more resources exist for agricultural purposes. It goes without saying that if there is no forage, cattle simply cannot graze. Our ecological goals are intertwined with protecting the livelihood of farmers and ranchers.    As we will hear from our witnesses today, effective grazing practices actually offer the potential to help restore the quality of our grasslands. The movement of hooved animals turn the soil, allowing it to retain more water and nutrients. This boosts our soil quality and encourages future plant growth, and reduces the risks of destructive wildfires through the natural bush clearing.    But grazing practices are not one-size-fit-all; rather, different environments may require different management practices for maximum benefit. According to the Natural Resources Conservation Service, animals should be moved from one area to the other, as the expert has told us, in a way that truly gives natural cycles a chance to occur and the plants an opportunity to regrow before the sections of land are grazed again. This principle is important to what we will discuss today, meeting the needs of livestock and ranchers while optimizing benefits to the environment.    I look forward to hearing from our witnesses, and I yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you.    I will hold the record open for 5 legislative days for any member who would like to submit a written statement.    We will now recognize our panel of witnesses. I am pleased to welcome Ms. Judith Schwartz, author of ``Cows Save the Planet and Other Improbable Ways of Restoring Soil to Heal the Earth''; and Mr. Byron Shelton, senior program director of the Savory Institute. Welcome to you both.    Pursuant to committee rules, witnesses will be sworn in before they testify, so please rise and raise your right hand.    Do you solemnly swear or affirm that the testimony you are about to give will be the truth, the whole truth, and nothing but the truth?    Thank you. The witnesses answered in the affirmative.    Please be seated.    In order to allow time for discussion, we ask you to limit your oral testimony to 5 minutes, but because we have some time to talk very casually and prospectively about these issues, we will have plenty of time for questions. Your entire written statement will be made part of the record.    So, Ms. Schwartz, we will begin with you. You are recognized for 5 minutes. Welcome.</t>
   </si>
   <si>
-    <t>Schwartz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schwartz. Thank you. Is this on? Am I good?</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Ms. Schwartz.    And Mr. Shelton, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Shelton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shelton. Honorable House Members, thank you for the opportunity to share conservation practices related to grazing. I am Byron Shelton, senior program director for Savory Institute.    Allan Savory, the scientist, ecologist, and farmer, has worked years to understand and train others in managing land regeneratively. This effort has resulted in holistic management. Managing holistically considers the whole picture, including economic, environmental, and social considerations simultaneously, both short and long-term.    Savory Institute was formed to promote large-scale restoration of the world's grasslands. Grasslands comprise one-third of the world's land surface, 70 percent of which are degraded. Savory Institute has 30 training centers worldwide, including demonstration sites and accredited professionals. Currently, over 40 million acres worldwide are being managed holistically.    With that background, I would like to get right to the crux of the matter. If I could have--I have two photos. The first photo at this point could be put up. To allow for reasonable debate and decisions on grazing, a clear understanding of the role of the grazing animal is needed. A land manager may say, I wish it would rain, causing more plant growth. Just as important is the need for water for plants to decay. Nutrients have to cycle back to regenerate soil. Decay occurs through microorganisms and insects, which need water to live.    With regular humidity and rainfall, as in this photo of the midAtlantic region, plants will grow, then biologically decay onto and into the ground, replenishing the soil, as water exists for the microorganisms and insects to live. You could go to the second photo, please.    Now comes the point that is not generally recognized. With irregular humidity and rainfall, as in many of our western lands, plants remain standing for years, as water is limited for microorganisms that would cause biological decay. These plants turn gray, oxidize into the air, mine the soil by not returning to it, and die, creating bare ground, poor water and nutrient cycles, and biodiversity loss. This variation in regularity of humidity and seasonal rainfall is referred to as brittleness. Nonbrittle environments have regular humidity and moisture, where brittle-leaning environments have irregular humidity and moisture.    What does this have to do with grazing? A bison, elk, deer, antelope, or cow, sheep, or goat can't digest plants any more than you or I, but these ruminants, as they are called, have a multi-chambered stomach full of moisture and microorganisms. These microbes digest the plants the animals chew. The ruminant, wild or domestic, is a mobile digestive vat moving about the land, breaking down plant material and returning it as dung or urine to replenish the soil.    When this animal is removed from brittle environments, this system is broken. This system is also broken by removing the predator that kept the herding animals bunched and moving, allowing for grazed forages to recover by regrowing roots and leaves between grazings. Herding and fencing replaces the predator. The hooves aerate the soil that has been sealed by rainfall, to allow for water to enter, making the rainfall more effective, and trampling the old plant material.    With bison or cattle, two tools are being managed: grazing and animal impact. Holistic management uses holistic plant grazing to manage these tools properly for regeneration of the natural resources.    Regardless of whether one eats meat, wildlife and their predators or domestic livestock being managed to mimic nature are required in these brittle areas for a healthy ecosystem, biodiversity, and drinking water.    Savory Institute's work addresses food production, water quality and quantity, soil health, carbon sequestration, wildlife and plant conservation, and climate change.    Land managers are increasing their profits while building biological capital, producing food and water on regenerating soils. Livestock, wildlife, plants, and human needs can be met simultaneously.    Holistic management is appealing to conservative and liberal values. Managing holistically is economically viable, while restoring the environment and meeting the needs of the people involved.    Thank you.</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you.    This question really goes to both of you, and feel free to take it in whatever order you'd like, but you talked about how these grazing practices could improve the land. Have the Federal agencies been open to your suggestions on this issue?</t>
   </si>
   <si>
@@ -221,9 +203,6 @@
   </si>
   <si>
     <t>412608</t>
-  </si>
-  <si>
-    <t>Gary J. Palmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Ms. Schwartz when we hear that a system of grazing management is not prescriptive, because all land is different, what exactly does that mean?</t>
@@ -691,11 +670,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -715,13 +692,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -743,11 +718,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -767,13 +740,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -795,11 +766,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -819,13 +788,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -847,11 +814,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -871,13 +836,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -899,11 +862,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -923,13 +884,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -951,11 +910,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -975,13 +932,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1003,11 +958,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1027,13 +980,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1055,11 +1006,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1079,13 +1028,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1107,11 +1054,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1131,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1157,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1183,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1209,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1235,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1261,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1287,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1313,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1339,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1365,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1391,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1417,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1443,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1469,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1495,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1523,11 +1438,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1547,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1573,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1599,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1625,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1651,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>52</v>
-      </c>
-      <c r="G39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1677,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1703,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1729,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1755,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1781,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1807,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1833,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1859,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1887,11 +1774,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1911,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1937,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1963,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1989,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2015,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2041,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>68</v>
-      </c>
-      <c r="G54" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2067,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2093,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2119,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2145,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2171,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2197,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2223,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2249,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2275,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2301,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2327,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2353,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2381,11 +2230,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2405,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2433,11 +2278,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2457,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2485,11 +2326,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22195.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22195.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>412294</t>
   </si>
   <si>
+    <t>Lummis</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Lummis. The Subcommittee on the Interior of the Committee on Oversight and Government Reform will come to order. This hearing is somewhat unique, in that it's totally about the future, the government reform component of OGR's responsibility.    In order to set the stage for this discussion, I want to explain why the subject is so important to me and why it should be important to Congress. Let's step back into Mr. Peabody's Way Back Machine and turn the dial to the 1970s. The 1970s were a time of major environmental and natural resource lawmaking. The EPA was created in 1970; the Clean Water Act was passed in 1972; the Endangered Species Act in 1973; and FLPMA, the Federal Land Policy Management Act, in 1976. Incidentally, I was in high school and college during those years and took classes in both range management and soil science in college. I also had some really bad hairdos, but we won't go there.    All right. Roughly 40 years have passed. Scientific knowledge has grown leaps and bounds. What was settled science back then is now very different. Global cooling science from the 1970s is now global warming science. We know only one thing for sure: science is never settled.    Range science is among the scientific disciplines that have evolved exponentially since I took a range management class in college over 40 years ago. We are going to hear about some of those practices today, those modern practices, which were neither contemplated nor accommodated in our 40-year natural resource management statutes. Rules and policies adopted recently in this decade are based on old laws and old science. Some of these rules implement practices that may accelerate desertification. There is a better way.    For the sake of our range health, let's explore modern soil science and grassland health. Modern holistic practices can inform natural resource laws, rules, and practices. 99.9 percent of the Bureau of Land Management land in the U.S. is in 11 western States. It is mostly grassland, a huge carbon sequestration resource.    We are grateful today for the testimony of witnesses who can attest to 21st century conservation practices that are restoring health to soils and grassland resources.    I also want to thank Ranking Member Lawrence for this departure from normal hearing processes to view the following excerpt from a Ted talk delivered by Allan Savory, a global leader in regenerative land and resource management. Now, Mr. Savory would have been here today to testify, but he is with Prince Philip in England talking about these very same issues, so he was unable to attend.    But would you please show us his Ted talk?</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Savory</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Savory. ``Desertification is a fancy word for land that is turning to desert, and this happens only when we create too much bare ground. There is no other cause. And I intend to focus on most of the world's land that is turning to desert. But I have for you a very simple message that offers more hope than you can imagine. We have environments where humidity is guaranteed throughout the year. On those, it is almost impossible to create vast areas of bare ground no matter what you do. Nature covers it up so quickly. And we have environments where we have months of humidity followed by months of dryness, and that is where desertification is occurring.    Fortunately with space technology now, we can look at it from space, and when we do, you can see the proportions fairly well. Generally what you see in green is not desertifying, and what you see in brown is, and these are by far the greatest areas of the earth. About two-thirds, I would guess, of the world is desertifying. I took this picture in the Tihamah Desert while 25 millimeters, that is an inch of rain, was falling. Think of it in terms of drums of water each containing 200 liters.    Over 1,000 drums of water fell on every hectare of that land that day. The next day, the land looked like this. Where had that water gone? Some of it ran off as flooding, but most of the water that soaked into the soil simply evaporated out again, exactly as it does in your garden if you leave the soil uncovered.    Now, because the fate of water and carbon are tied to soil organic matter, when we damage soils, you give off carbon, carbon goes back to the atmosphere.    Now, you are told over and over repeatedly that desertification is only occurring in arid and semiarid areas of the world and that tall grasslands like this one, in high rainfall, are of no consequence, but if you do not look at grasslands, but look down into them, you find that most of the soil in that grassland that you have just seen is bare and covered with a crust of algae, leading to increased runoff and evaporation. That is the cancer of desertification that we do not recognize till its terminal form.    Now, we know that desertification is caused by livestock, mostly cattle, sheep, and goats overgrazing the plants, okay, leaving the soil bare and giving off methane. Almost everybody knows this, from Nobel laureates to golf caddies, always taught it, as I was.    Now, the environments like you see here, dusty environments in Africa, where I grew up, and I loved wildlife, and so I grew up hating livestock because of the damage they were doing, and then my university education as an ecologist reinforced my beliefs. Well, I have news for you. We were once just as certain that the world was flat. We were wrong then, and we are wrong again. And I want to invite you now to come along on my journey of reeducation and discovery.    When I was a young man, a young biologist in Africa, I was involved in setting aside marvelous areas as future national parks. Now, no sooner--this was in the 1950s. And no sooner did we remove the hunting, drumbeating people to protect the animals, than the land began to deteriorate, as you see in this park that we formed. Now, no livestock were involved, but suspecting that we had too many elephants now, I did the research and I proved we had too many, and I recommended that we would have to reduce their numbers and bring them down to a level that the land could sustain. Now, that was a terrible decision for me to have to make, and it was political dynamite, frankly, so our government formed a team of experts to evaluate my research. They did. They agreed with me. And over the following years, we shot 40,000 elephants to try to stop the damage, and it got worse, not better. Loving elephants as I do, that was the saddest and greatest blunder of my life, and I will carry that to my grave. One good thing did come out of it. It made me absolutely determined to devote my life to finding solutions.    When I came to the United States, I got a shock to find national parks like this one desertifying as badly as anything in Africa, and there had been no livestock on this land for over 70 years. And I found that American scientists had no explanation for this except that it is arid and natural.    So I then began looking at all the research plots I could over the whole of the western United States where cattle had been removed to prove that it would stop desertification, but I found the opposite. As we see on this research station where this grassland that was green in 1961, by 2002 had changed to that situation. And the authors of the position paper on climate change from which I obtained these pictures attribute this change to unknown processes.    Clearly we have never understood what is causing desertification, which has destroyed many civilizations and now threatens us globally. We have never understood it. Take one square meter of soil and make it bare like this is down here, and I promise you, you will find it much colder at dawn and much hotter at midday than that same piece of ground if it is just covered with litter, plant litter. You have changed the microclimate. Now, by the time you are doing that and increasing greatly the percentage of bare ground on more than half the world's land, you are changing macroclimate, but we have just simply not understood why was it beginning to happen 10,000 years ago, why has it accelerated lately. We had no understanding of that.    What we had failed to understand was that these seasonal humidity environments of the world, the soil and the vegetation, developed with very large numbers of grazing animals and that these grazing animals developed with ferocious pack hunting predators. Now, the main defense against pack hunting predators is to get into herds, and the larger the herd, the safer the individuals. Now, large herds, dung and urinate all over their own food, and they have to keep moving, and it was that movement that prevented the overgrazing of plants, while the periodic trampling ensured good cover of the soil, as we see where a herd has passed.    This picture is a typical seasonal grassland, it has just come through 4 months of rain and it is now going into 8 months of dry season, and watch the change as it goes into this long dry season. Now, all of that grass you see aboveground has to decay biologically before the next growing season, and if it doesn't, the grassland and the soil begin to die. Now, if it does not decay biologically, it shifts to oxidation, which is a very slow process, and this smothers and kills grasses, leading to a shift to woody vegetation and bare soil, releasing carbon.    To prevent that, we have traditionally used fire, but fire also leaves the soil bare, releasing carbon. And worse than that, burning one hectare of grassland gives off more and more damaging pollutants than 6,000 cars, and we are burning in Africa every single year more than 1 billion hectares of grasslands, and almost nobody is talking about it. We justify the burning as scientists, because it does remove the dead material and it allows the plants to grow.''</t>
   </si>
   <si>
@@ -67,12 +79,21 @@
     <t>412638</t>
   </si>
   <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Madam Chair. I do want to say, being a city girl born and raised, I have learned a lot from you.    The United States has over 770 million acres of grazing land. These lands are important to both our agriculture and the environment. Grasslands provide pasture for livestock, but also act as a natural erosion control habitat for a diverse and sometimes even endangered species, and reservoirs for carbon dioxide that would otherwise be released into the atmosphere.    While the environment is healthier, more resources exist for agricultural purposes. It goes without saying that if there is no forage, cattle simply cannot graze. Our ecological goals are intertwined with protecting the livelihood of farmers and ranchers.    As we will hear from our witnesses today, effective grazing practices actually offer the potential to help restore the quality of our grasslands. The movement of hooved animals turn the soil, allowing it to retain more water and nutrients. This boosts our soil quality and encourages future plant growth, and reduces the risks of destructive wildfires through the natural bush clearing.    But grazing practices are not one-size-fit-all; rather, different environments may require different management practices for maximum benefit. According to the Natural Resources Conservation Service, animals should be moved from one area to the other, as the expert has told us, in a way that truly gives natural cycles a chance to occur and the plants an opportunity to regrow before the sections of land are grazed again. This principle is important to what we will discuss today, meeting the needs of livestock and ranchers while optimizing benefits to the environment.    I look forward to hearing from our witnesses, and I yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you.    I will hold the record open for 5 legislative days for any member who would like to submit a written statement.    We will now recognize our panel of witnesses. I am pleased to welcome Ms. Judith Schwartz, author of ``Cows Save the Planet and Other Improbable Ways of Restoring Soil to Heal the Earth''; and Mr. Byron Shelton, senior program director of the Savory Institute. Welcome to you both.    Pursuant to committee rules, witnesses will be sworn in before they testify, so please rise and raise your right hand.    Do you solemnly swear or affirm that the testimony you are about to give will be the truth, the whole truth, and nothing but the truth?    Thank you. The witnesses answered in the affirmative.    Please be seated.    In order to allow time for discussion, we ask you to limit your oral testimony to 5 minutes, but because we have some time to talk very casually and prospectively about these issues, we will have plenty of time for questions. Your entire written statement will be made part of the record.    So, Ms. Schwartz, we will begin with you. You are recognized for 5 minutes. Welcome.</t>
   </si>
   <si>
+    <t>Schwartz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Schwartz. Thank you. Is this on? Am I good?</t>
   </si>
   <si>
@@ -91,6 +112,9 @@
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Ms. Schwartz.    And Mr. Shelton, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Shelton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shelton. Honorable House Members, thank you for the opportunity to share conservation practices related to grazing. I am Byron Shelton, senior program director for Savory Institute.    Allan Savory, the scientist, ecologist, and farmer, has worked years to understand and train others in managing land regeneratively. This effort has resulted in holistic management. Managing holistically considers the whole picture, including economic, environmental, and social considerations simultaneously, both short and long-term.    Savory Institute was formed to promote large-scale restoration of the world's grasslands. Grasslands comprise one-third of the world's land surface, 70 percent of which are degraded. Savory Institute has 30 training centers worldwide, including demonstration sites and accredited professionals. Currently, over 40 million acres worldwide are being managed holistically.    With that background, I would like to get right to the crux of the matter. If I could have--I have two photos. The first photo at this point could be put up. To allow for reasonable debate and decisions on grazing, a clear understanding of the role of the grazing animal is needed. A land manager may say, I wish it would rain, causing more plant growth. Just as important is the need for water for plants to decay. Nutrients have to cycle back to regenerate soil. Decay occurs through microorganisms and insects, which need water to live.    With regular humidity and rainfall, as in this photo of the midAtlantic region, plants will grow, then biologically decay onto and into the ground, replenishing the soil, as water exists for the microorganisms and insects to live. You could go to the second photo, please.    Now comes the point that is not generally recognized. With irregular humidity and rainfall, as in many of our western lands, plants remain standing for years, as water is limited for microorganisms that would cause biological decay. These plants turn gray, oxidize into the air, mine the soil by not returning to it, and die, creating bare ground, poor water and nutrient cycles, and biodiversity loss. This variation in regularity of humidity and seasonal rainfall is referred to as brittleness. Nonbrittle environments have regular humidity and moisture, where brittle-leaning environments have irregular humidity and moisture.    What does this have to do with grazing? A bison, elk, deer, antelope, or cow, sheep, or goat can't digest plants any more than you or I, but these ruminants, as they are called, have a multi-chambered stomach full of moisture and microorganisms. These microbes digest the plants the animals chew. The ruminant, wild or domestic, is a mobile digestive vat moving about the land, breaking down plant material and returning it as dung or urine to replenish the soil.    When this animal is removed from brittle environments, this system is broken. This system is also broken by removing the predator that kept the herding animals bunched and moving, allowing for grazed forages to recover by regrowing roots and leaves between grazings. Herding and fencing replaces the predator. The hooves aerate the soil that has been sealed by rainfall, to allow for water to enter, making the rainfall more effective, and trampling the old plant material.    With bison or cattle, two tools are being managed: grazing and animal impact. Holistic management uses holistic plant grazing to manage these tools properly for regeneration of the natural resources.    Regardless of whether one eats meat, wildlife and their predators or domestic livestock being managed to mimic nature are required in these brittle areas for a healthy ecosystem, biodiversity, and drinking water.    Savory Institute's work addresses food production, water quality and quantity, soil health, carbon sequestration, wildlife and plant conservation, and climate change.    Land managers are increasing their profits while building biological capital, producing food and water on regenerating soils. Livestock, wildlife, plants, and human needs can be met simultaneously.    Holistic management is appealing to conservative and liberal values. Managing holistically is economically viable, while restoring the environment and meeting the needs of the people involved.    Thank you.</t>
   </si>
   <si>
@@ -160,6 +184,12 @@
     <t>412619</t>
   </si>
   <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you.    This question really goes to both of you, and feel free to take it in whatever order you'd like, but you talked about how these grazing practices could improve the land. Have the Federal agencies been open to your suggestions on this issue?</t>
   </si>
   <si>
@@ -203,6 +233,12 @@
   </si>
   <si>
     <t>412608</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Ms. Schwartz when we hear that a system of grazing management is not prescriptive, because all land is different, what exactly does that mean?</t>
@@ -620,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +664,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,1685 +686,1974 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
       <c r="H60" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>73</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22195.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22195.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412294</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Lummis</t>
@@ -656,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,7 +670,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,1971 +695,2120 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>97</v>
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
